--- a/outcome/appendix/forecast/AIDS.xlsx
+++ b/outcome/appendix/forecast/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3810.77970798351</v>
+        <v>3810.74725039387</v>
       </c>
       <c r="C2" t="n">
-        <v>3093.22095837491</v>
+        <v>3093.19669656473</v>
       </c>
       <c r="D2" t="n">
-        <v>2756.2171748329</v>
+        <v>2756.19455802821</v>
       </c>
       <c r="E2" t="n">
-        <v>4643.14911333962</v>
+        <v>4643.1062253206</v>
       </c>
       <c r="F2" t="n">
-        <v>5133.99195322727</v>
+        <v>5133.94478375156</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1051.77970798351</v>
+        <v>1051.74725039387</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3746.07429136533</v>
+        <v>3746.0459810632</v>
       </c>
       <c r="C3" t="n">
-        <v>2992.96310692697</v>
+        <v>2992.94162699029</v>
       </c>
       <c r="D3" t="n">
-        <v>2642.54408928292</v>
+        <v>2642.52297308112</v>
       </c>
       <c r="E3" t="n">
-        <v>4629.27479356977</v>
+        <v>4629.2368972288</v>
       </c>
       <c r="F3" t="n">
-        <v>5154.02457530549</v>
+        <v>5153.98308857661</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.07429136533</v>
+        <v>1613.0459810632</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6363.14350949519</v>
+        <v>6363.05457030953</v>
       </c>
       <c r="C4" t="n">
-        <v>5178.8065426557</v>
+        <v>5178.7207264258</v>
       </c>
       <c r="D4" t="n">
-        <v>4621.70412894684</v>
+        <v>4621.62517564619</v>
       </c>
       <c r="E4" t="n">
-        <v>7734.43864490854</v>
+        <v>7734.37052711858</v>
       </c>
       <c r="F4" t="n">
-        <v>8542.04875017313</v>
+        <v>8542.00646701013</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1555.14350949519</v>
+        <v>1555.05457030953</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5995.75506757356</v>
+        <v>5995.66975459079</v>
       </c>
       <c r="C5" t="n">
-        <v>4807.02986125018</v>
+        <v>4806.95149342266</v>
       </c>
       <c r="D5" t="n">
-        <v>4252.7874498002</v>
+        <v>4252.71689611151</v>
       </c>
       <c r="E5" t="n">
-        <v>7386.48560460706</v>
+        <v>7386.41581888315</v>
       </c>
       <c r="F5" t="n">
-        <v>8211.42562802004</v>
+        <v>8211.37889740226</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>35.7550675735556</v>
+        <v>35.6697545907919</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6379.92571029174</v>
+        <v>6379.8480117198</v>
       </c>
       <c r="C6" t="n">
-        <v>5078.69322805855</v>
+        <v>5078.61644695365</v>
       </c>
       <c r="D6" t="n">
-        <v>4474.54239797839</v>
+        <v>4474.4722975747</v>
       </c>
       <c r="E6" t="n">
-        <v>7909.77372827016</v>
+        <v>7909.72536556231</v>
       </c>
       <c r="F6" t="n">
-        <v>8820.296990128</v>
+        <v>8820.28340628881</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>895.925710291742</v>
+        <v>895.848011719795</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6948.73621804876</v>
+        <v>6948.64416812825</v>
       </c>
       <c r="C7" t="n">
-        <v>5504.66989115447</v>
+        <v>5504.5721128132</v>
       </c>
       <c r="D7" t="n">
-        <v>4836.12608533342</v>
+        <v>4836.03458160069</v>
       </c>
       <c r="E7" t="n">
-        <v>8652.19419920155</v>
+        <v>8652.14921199645</v>
       </c>
       <c r="F7" t="n">
-        <v>9668.36664260756</v>
+        <v>9668.37187170298</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>33.7362180487644</v>
+        <v>33.6441681282531</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7111.50853201807</v>
+        <v>7111.32014938265</v>
       </c>
       <c r="C8" t="n">
-        <v>5587.36318467837</v>
+        <v>5587.18158230285</v>
       </c>
       <c r="D8" t="n">
-        <v>4885.18141667268</v>
+        <v>4885.01345321569</v>
       </c>
       <c r="E8" t="n">
-        <v>8919.62791562966</v>
+        <v>8919.47857272487</v>
       </c>
       <c r="F8" t="n">
-        <v>10002.4066528826</v>
+        <v>10002.3063715233</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1945.50853201807</v>
+        <v>1945.32014938265</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6582.80316154136</v>
+        <v>6582.69249584258</v>
       </c>
       <c r="C9" t="n">
-        <v>5095.86928253065</v>
+        <v>5095.76191345184</v>
       </c>
       <c r="D9" t="n">
-        <v>4416.83254027714</v>
+        <v>4416.73506082871</v>
       </c>
       <c r="E9" t="n">
-        <v>8364.75258131504</v>
+        <v>8364.68065532763</v>
       </c>
       <c r="F9" t="n">
-        <v>9439.23107705765</v>
+        <v>9439.20709413743</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>5166</v>
       </c>
       <c r="I9" t="n">
-        <v>1416.80316154136</v>
+        <v>1416.69249584258</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6716.13994459823</v>
+        <v>6716.05180010823</v>
       </c>
       <c r="C10" t="n">
-        <v>5158.62882985269</v>
+        <v>5158.5379492298</v>
       </c>
       <c r="D10" t="n">
-        <v>4450.6612569223</v>
+        <v>4450.57843210842</v>
       </c>
       <c r="E10" t="n">
-        <v>8592.63822138713</v>
+        <v>8592.60101007907</v>
       </c>
       <c r="F10" t="n">
-        <v>9728.20685218586</v>
+        <v>9728.22790039376</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-210.860055401768</v>
+        <v>-210.948199891774</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6113.59368517817</v>
+        <v>6113.5102943275</v>
       </c>
       <c r="C11" t="n">
-        <v>4620.40122229213</v>
+        <v>4620.3236373556</v>
       </c>
       <c r="D11" t="n">
-        <v>3948.19709055017</v>
+        <v>3948.128651128</v>
       </c>
       <c r="E11" t="n">
-        <v>7932.50341958582</v>
+        <v>7932.45414505823</v>
       </c>
       <c r="F11" t="n">
-        <v>9041.3908913308</v>
+        <v>9041.38792538588</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1567.59368517817</v>
+        <v>1567.5102943275</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7485.14327753739</v>
+        <v>7485.09239654247</v>
       </c>
       <c r="C12" t="n">
-        <v>5696.19022709899</v>
+        <v>5696.11485983885</v>
       </c>
       <c r="D12" t="n">
-        <v>4887.50851686926</v>
+        <v>4887.43606700091</v>
       </c>
       <c r="E12" t="n">
-        <v>9654.13225142466</v>
+        <v>9654.17778188023</v>
       </c>
       <c r="F12" t="n">
-        <v>10972.2907141634</v>
+        <v>10972.431953772</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1661.14327753739</v>
+        <v>1661.09239654247</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7829.27379373297</v>
+        <v>7829.11789551538</v>
       </c>
       <c r="C13" t="n">
-        <v>5930.11239408699</v>
+        <v>5929.9432467074</v>
       </c>
       <c r="D13" t="n">
-        <v>5074.02088134273</v>
+        <v>5073.86274780628</v>
       </c>
       <c r="E13" t="n">
-        <v>10139.248553885</v>
+        <v>10139.1872555088</v>
       </c>
       <c r="F13" t="n">
-        <v>11546.0995619352</v>
+        <v>11546.1387938448</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>1321.27379373297</v>
+        <v>1321.11789551538</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4187.02056636405</v>
+        <v>4186.90608367862</v>
       </c>
       <c r="C14" t="n">
-        <v>2916.70100136304</v>
+        <v>2916.60019338674</v>
       </c>
       <c r="D14" t="n">
-        <v>2372.28702766028</v>
+        <v>2372.18738747495</v>
       </c>
       <c r="E14" t="n">
-        <v>5821.35772282941</v>
+        <v>5821.24127689518</v>
       </c>
       <c r="F14" t="n">
-        <v>6854.19760387687</v>
+        <v>6854.09906430864</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>927.020566364048</v>
+        <v>926.906083678624</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4084.5999006573</v>
+        <v>4084.48514324436</v>
       </c>
       <c r="C15" t="n">
-        <v>2795.93293720323</v>
+        <v>2795.82920114167</v>
       </c>
       <c r="D15" t="n">
-        <v>2249.53384103173</v>
+        <v>2249.42884950207</v>
       </c>
       <c r="E15" t="n">
-        <v>5761.8669295789</v>
+        <v>5761.7529573681</v>
       </c>
       <c r="F15" t="n">
-        <v>6829.77819534806</v>
+        <v>6829.6852385462</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1033.5999006573</v>
+        <v>1033.48514324436</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6911.32657283751</v>
+        <v>6911.12005182</v>
       </c>
       <c r="C16" t="n">
-        <v>4922.60687078735</v>
+        <v>4922.3941995317</v>
       </c>
       <c r="D16" t="n">
-        <v>4058.72575673547</v>
+        <v>4058.52773808142</v>
       </c>
       <c r="E16" t="n">
-        <v>9432.40744347222</v>
+        <v>9432.30668058386</v>
       </c>
       <c r="F16" t="n">
-        <v>11010.4223030781</v>
+        <v>11010.4451958026</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>960.326572837509</v>
+        <v>960.120051819997</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6387.35178397016</v>
+        <v>6387.14019344162</v>
       </c>
       <c r="C17" t="n">
-        <v>4459.67349528903</v>
+        <v>4459.46672600359</v>
       </c>
       <c r="D17" t="n">
-        <v>3632.38436874108</v>
+        <v>3632.19365645691</v>
       </c>
       <c r="E17" t="n">
-        <v>8863.65070768028</v>
+        <v>8863.52487673917</v>
       </c>
       <c r="F17" t="n">
-        <v>10427.0410909683</v>
+        <v>10427.0260780041</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1104.35178397016</v>
+        <v>1104.14019344162</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6898.03841789207</v>
+        <v>6897.84444749548</v>
       </c>
       <c r="C18" t="n">
-        <v>4797.00506267105</v>
+        <v>4796.79744110154</v>
       </c>
       <c r="D18" t="n">
-        <v>3897.51415389401</v>
+        <v>3897.31969156627</v>
       </c>
       <c r="E18" t="n">
-        <v>9604.19922318267</v>
+        <v>9604.13671215684</v>
       </c>
       <c r="F18" t="n">
-        <v>11315.6439716114</v>
+        <v>11315.7324522543</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1851.03841789207</v>
+        <v>1850.84444749548</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7530.8435752019</v>
+        <v>7530.63036155424</v>
       </c>
       <c r="C19" t="n">
-        <v>5225.44586066427</v>
+        <v>5225.20332236763</v>
       </c>
       <c r="D19" t="n">
-        <v>4239.79911666834</v>
+        <v>4239.56985996682</v>
       </c>
       <c r="E19" t="n">
-        <v>10504.6020319012</v>
+        <v>10504.5687324959</v>
       </c>
       <c r="F19" t="n">
-        <v>12387.070421433</v>
+        <v>12387.2327776304</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>1552.8435752019</v>
+        <v>1552.63036155424</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7654.33153641474</v>
+        <v>7653.99212121266</v>
       </c>
       <c r="C20" t="n">
-        <v>5263.08338994806</v>
+        <v>5262.73876695668</v>
       </c>
       <c r="D20" t="n">
-        <v>4246.38987152723</v>
+        <v>4246.07223674175</v>
       </c>
       <c r="E20" t="n">
-        <v>10757.4259544312</v>
+        <v>10757.2524995932</v>
       </c>
       <c r="F20" t="n">
-        <v>12729.3881882366</v>
+        <v>12729.4111771099</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>4281.33153641474</v>
+        <v>4280.99212121266</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>7128.7239438196</v>
+        <v>7128.48862493833</v>
       </c>
       <c r="C21" t="n">
-        <v>4812.65386787315</v>
+        <v>4812.40279204357</v>
       </c>
       <c r="D21" t="n">
-        <v>3838.91853235772</v>
+        <v>3838.68499525951</v>
       </c>
       <c r="E21" t="n">
-        <v>10170.7799738107</v>
+        <v>10170.7136517636</v>
       </c>
       <c r="F21" t="n">
-        <v>12118.9650847731</v>
+        <v>12119.0954289875</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>2418.7239438196</v>
+        <v>2418.48862493833</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7307.78865268973</v>
+        <v>7307.58584623923</v>
       </c>
       <c r="C22" t="n">
-        <v>4895.8915372193</v>
+        <v>4895.65773059403</v>
       </c>
       <c r="D22" t="n">
-        <v>3886.62969529178</v>
+        <v>3886.40950262307</v>
       </c>
       <c r="E22" t="n">
-        <v>10491.6832031706</v>
+        <v>10491.6840177291</v>
       </c>
       <c r="F22" t="n">
-        <v>12537.2476658632</v>
+        <v>12537.4760109826</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>2268.78865268973</v>
+        <v>2268.58584623923</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6597.97444601013</v>
+        <v>6597.77519243544</v>
       </c>
       <c r="C23" t="n">
-        <v>4322.96960344394</v>
+        <v>4322.75736929172</v>
       </c>
       <c r="D23" t="n">
-        <v>3383.97540168308</v>
+        <v>3383.77731492801</v>
       </c>
       <c r="E23" t="n">
-        <v>9645.2211555844</v>
+        <v>9645.18367153763</v>
       </c>
       <c r="F23" t="n">
-        <v>11621.1288301509</v>
+        <v>11621.2872948102</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>1240.97444601013</v>
+        <v>1240.77519243544</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>8112.0826030724</v>
+        <v>8111.92638380702</v>
       </c>
       <c r="C24" t="n">
-        <v>5392.06893307494</v>
+        <v>5391.83880501307</v>
       </c>
       <c r="D24" t="n">
-        <v>4259.38320890241</v>
+        <v>4259.15927834014</v>
       </c>
       <c r="E24" t="n">
-        <v>11721.3027448039</v>
+        <v>11721.4559015508</v>
       </c>
       <c r="F24" t="n">
-        <v>14047.7419451564</v>
+        <v>14048.216424585</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1619.0826030724</v>
+        <v>1618.92638380702</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>8706.45197739097</v>
+        <v>8706.18447506669</v>
       </c>
       <c r="C25" t="n">
-        <v>5780.30873314528</v>
+        <v>5779.97107908272</v>
       </c>
       <c r="D25" t="n">
-        <v>4562.6721584174</v>
+        <v>4562.35147496127</v>
       </c>
       <c r="E25" t="n">
-        <v>12592.1915934848</v>
+        <v>12592.2669044015</v>
       </c>
       <c r="F25" t="n">
-        <v>15098.0981325938</v>
+        <v>15098.5350355295</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>1216.45197739097</v>
+        <v>1216.18447506669</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4643.71194515562</v>
+        <v>4643.50006594828</v>
       </c>
       <c r="C26" t="n">
-        <v>2791.45420359858</v>
+        <v>2791.25811890896</v>
       </c>
       <c r="D26" t="n">
-        <v>2066.96597978245</v>
+        <v>2066.77232140467</v>
       </c>
       <c r="E26" t="n">
-        <v>7266.23171118205</v>
+        <v>7266.07826665787</v>
       </c>
       <c r="F26" t="n">
-        <v>9026.18153747061</v>
+        <v>9026.13939757609</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1534.71194515562</v>
+        <v>1534.50006594828</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4533.20457017728</v>
+        <v>4532.99362466224</v>
       </c>
       <c r="C27" t="n">
-        <v>2679.50464410396</v>
+        <v>2679.30718430084</v>
       </c>
       <c r="D27" t="n">
-        <v>1962.12586674794</v>
+        <v>1961.92795956912</v>
       </c>
       <c r="E27" t="n">
-        <v>7185.98588515415</v>
+        <v>7185.83622377696</v>
       </c>
       <c r="F27" t="n">
-        <v>8977.83442266777</v>
+        <v>8977.80107940317</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1169.20457017728</v>
+        <v>1168.99362466224</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7567.15327728851</v>
+        <v>7566.82611936307</v>
       </c>
       <c r="C28" t="n">
-        <v>4752.68515710803</v>
+        <v>4752.3302269792</v>
       </c>
       <c r="D28" t="n">
-        <v>3621.14476614129</v>
+        <v>3620.81783679075</v>
       </c>
       <c r="E28" t="n">
-        <v>11441.7111600792</v>
+        <v>11441.6787218962</v>
       </c>
       <c r="F28" t="n">
-        <v>13997.4515888672</v>
+        <v>13997.7671491556</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>2547.15327728851</v>
+        <v>2546.82611936307</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>7006.85889311746</v>
+        <v>7006.52759009119</v>
       </c>
       <c r="C29" t="n">
-        <v>4306.98801637451</v>
+        <v>4306.64797121551</v>
       </c>
       <c r="D29" t="n">
-        <v>3236.05365133976</v>
+        <v>3235.74260640673</v>
       </c>
       <c r="E29" t="n">
-        <v>10775.4407419448</v>
+        <v>10775.3632529883</v>
       </c>
       <c r="F29" t="n">
-        <v>13282.5836438701</v>
+        <v>13282.825392251</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3169.85889311746</v>
+        <v>3169.52759009119</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7552.95359089259</v>
+        <v>7552.63986908761</v>
       </c>
       <c r="C30" t="n">
-        <v>4640.83110554368</v>
+        <v>4640.48018123557</v>
       </c>
       <c r="D30" t="n">
-        <v>3485.99055413553</v>
+        <v>3485.66631317081</v>
       </c>
       <c r="E30" t="n">
-        <v>11618.8312535814</v>
+        <v>11618.8534204122</v>
       </c>
       <c r="F30" t="n">
-        <v>14324.17727328</v>
+        <v>14324.5947754886</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>3062.95359089259</v>
+        <v>3062.63986908761</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>8228.65354341359</v>
+        <v>8228.31853531778</v>
       </c>
       <c r="C31" t="n">
-        <v>5063.71728481455</v>
+        <v>5063.31985052185</v>
       </c>
       <c r="D31" t="n">
-        <v>3807.42018325115</v>
+        <v>3807.05133899851</v>
       </c>
       <c r="E31" t="n">
-        <v>12643.1977362451</v>
+        <v>12643.2871457594</v>
       </c>
       <c r="F31" t="n">
-        <v>15578.7787954776</v>
+        <v>15579.3485313647</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>2602.65354341359</v>
+        <v>2602.31853531778</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8360.39495406593</v>
+        <v>8359.92528306943</v>
       </c>
       <c r="C32" t="n">
-        <v>5104.52251419663</v>
+        <v>5104.02230847217</v>
       </c>
       <c r="D32" t="n">
-        <v>3818.48638065655</v>
+        <v>3818.03295997735</v>
       </c>
       <c r="E32" t="n">
-        <v>12924.6679582102</v>
+        <v>12924.6088860762</v>
       </c>
       <c r="F32" t="n">
-        <v>15969.191082483</v>
+        <v>15969.6203740649</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>3693.39495406593</v>
+        <v>3692.92528306943</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7799.39619252236</v>
+        <v>7799.03793629741</v>
       </c>
       <c r="C33" t="n">
-        <v>4667.46838938187</v>
+        <v>4667.06887544718</v>
       </c>
       <c r="D33" t="n">
-        <v>3445.90778121392</v>
+        <v>3445.54186013779</v>
       </c>
       <c r="E33" t="n">
-        <v>12246.383880666</v>
+        <v>12246.4293182207</v>
       </c>
       <c r="F33" t="n">
-        <v>15235.8921190177</v>
+        <v>15236.4173211874</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>3120.39619252236</v>
+        <v>3120.03793629741</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7990.59581748313</v>
+        <v>7990.27207800274</v>
       </c>
       <c r="C34" t="n">
-        <v>4751.76726238587</v>
+        <v>4751.38067156297</v>
       </c>
       <c r="D34" t="n">
-        <v>3493.54265132154</v>
+        <v>3493.18528296476</v>
       </c>
       <c r="E34" t="n">
-        <v>12607.861248544</v>
+        <v>12607.9977977615</v>
       </c>
       <c r="F34" t="n">
-        <v>15719.4087546183</v>
+        <v>15720.0785081849</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>3601.59581748313</v>
+        <v>3601.27207800274</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7232.17558742362</v>
+        <v>7231.85688623687</v>
       </c>
       <c r="C35" t="n">
-        <v>4193.73843581151</v>
+        <v>4193.38571297153</v>
       </c>
       <c r="D35" t="n">
-        <v>3032.06259070304</v>
+        <v>3031.73825427496</v>
       </c>
       <c r="E35" t="n">
-        <v>11633.3215367879</v>
+        <v>11633.387651841</v>
       </c>
       <c r="F35" t="n">
-        <v>14627.8685408091</v>
+        <v>14628.408043607</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>3267.17558742362</v>
+        <v>3266.85688623687</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8848.42862254683</v>
+        <v>8848.15438589204</v>
       </c>
       <c r="C36" t="n">
-        <v>5242.40445044915</v>
+        <v>5242.00509920452</v>
       </c>
       <c r="D36" t="n">
-        <v>3844.81386125918</v>
+        <v>3844.43673845</v>
       </c>
       <c r="E36" t="n">
-        <v>14001.2781774373</v>
+        <v>14001.6397323798</v>
       </c>
       <c r="F36" t="n">
-        <v>17478.7060916007</v>
+        <v>17479.7643683834</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>4549.42862254683</v>
+        <v>4549.15438589204</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>9481.43030995603</v>
+        <v>9481.03819977335</v>
       </c>
       <c r="C37" t="n">
-        <v>5624.9262137304</v>
+        <v>5624.40960963336</v>
       </c>
       <c r="D37" t="n">
-        <v>4128.99706159142</v>
+        <v>4128.51777061564</v>
       </c>
       <c r="E37" t="n">
-        <v>14987.5525885843</v>
+        <v>14987.862349326</v>
       </c>
       <c r="F37" t="n">
-        <v>18701.4888187467</v>
+        <v>18702.5722190436</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>5264</v>
       </c>
       <c r="I37" t="n">
-        <v>4217.43030995603</v>
+        <v>4217.03819977335</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5135.82480600354</v>
+        <v>5135.50326368626</v>
       </c>
       <c r="C38" t="n">
-        <v>2704.26186557947</v>
+        <v>2703.96174409745</v>
       </c>
       <c r="D38" t="n">
-        <v>1830.48036827364</v>
+        <v>1830.19077076387</v>
       </c>
       <c r="E38" t="n">
-        <v>8875.54465397484</v>
+        <v>8875.40799023641</v>
       </c>
       <c r="F38" t="n">
-        <v>11511.5982517236</v>
+        <v>11511.7662358371</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1815</v>
       </c>
       <c r="I38" t="n">
-        <v>3320.82480600354</v>
+        <v>3320.50326368626</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>5016.83766595883</v>
+        <v>5016.51815156993</v>
       </c>
       <c r="C39" t="n">
-        <v>2596.53043142615</v>
+        <v>2596.23095468993</v>
       </c>
       <c r="D39" t="n">
-        <v>1736.4809535808</v>
+        <v>1736.188674357</v>
       </c>
       <c r="E39" t="n">
-        <v>8778.64190275764</v>
+        <v>8778.50944434766</v>
       </c>
       <c r="F39" t="n">
-        <v>11446.4210898915</v>
+        <v>11446.6005067303</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>4516</v>
       </c>
       <c r="I39" t="n">
-        <v>500.837665958829</v>
+        <v>500.518151569931</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8267.3938638493</v>
+        <v>8266.93727255644</v>
       </c>
       <c r="C40" t="n">
-        <v>4628.43683999251</v>
+        <v>4627.92624317407</v>
       </c>
       <c r="D40" t="n">
-        <v>3268.02581265816</v>
+        <v>3267.56649407855</v>
       </c>
       <c r="E40" t="n">
-        <v>13655.8316561235</v>
+        <v>13655.9781499362</v>
       </c>
       <c r="F40" t="n">
-        <v>17370.6288966853</v>
+        <v>17371.5071841633</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>5785</v>
       </c>
       <c r="I40" t="n">
-        <v>2482.3938638493</v>
+        <v>2481.93727255644</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>7669.22479595467</v>
+        <v>7668.76416753827</v>
       </c>
       <c r="C41" t="n">
-        <v>4193.12675198072</v>
+        <v>4192.64113702169</v>
       </c>
       <c r="D41" t="n">
-        <v>2913.20738403272</v>
+        <v>2912.77313136106</v>
       </c>
       <c r="E41" t="n">
-        <v>12892.8117110254</v>
+        <v>12892.8846212196</v>
       </c>
       <c r="F41" t="n">
-        <v>16525.3449602355</v>
+        <v>16526.0982474887</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>4937</v>
       </c>
       <c r="I41" t="n">
-        <v>2732.22479595467</v>
+        <v>2731.76416753827</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>8252.2440132243</v>
+        <v>8251.80175953516</v>
       </c>
       <c r="C42" t="n">
-        <v>4522.10292417546</v>
+        <v>4521.59615540679</v>
       </c>
       <c r="D42" t="n">
-        <v>3146.64266497302</v>
+        <v>3146.1864552875</v>
       </c>
       <c r="E42" t="n">
-        <v>13849.7356446563</v>
+        <v>13849.9564265407</v>
       </c>
       <c r="F42" t="n">
-        <v>17739.083491036</v>
+        <v>17740.1098710434</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>5455</v>
       </c>
       <c r="I42" t="n">
-        <v>2797.2440132243</v>
+        <v>2796.80175953516</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>8972.63581339015</v>
+        <v>8972.17116441264</v>
       </c>
       <c r="C43" t="n">
-        <v>4938.53241685178</v>
+        <v>4937.96703711238</v>
       </c>
       <c r="D43" t="n">
-        <v>3446.77445007208</v>
+        <v>3446.26431350715</v>
       </c>
       <c r="E43" t="n">
-        <v>15009.7654018799</v>
+        <v>15010.105275516</v>
       </c>
       <c r="F43" t="n">
-        <v>19197.8666694144</v>
+        <v>19199.1526093208</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>5759</v>
       </c>
       <c r="I43" t="n">
-        <v>3213.63581339015</v>
+        <v>3213.17116441264</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9112.97170463322</v>
+        <v>9112.36377967158</v>
       </c>
       <c r="C44" t="n">
-        <v>4979.76531377533</v>
+        <v>4979.09630069787</v>
       </c>
       <c r="D44" t="n">
-        <v>3458.4311836404</v>
+        <v>3457.84008683696</v>
       </c>
       <c r="E44" t="n">
-        <v>15326.1120434239</v>
+        <v>15326.2980004045</v>
       </c>
       <c r="F44" t="n">
-        <v>19647.6504636529</v>
+        <v>19648.8025495683</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>4854</v>
       </c>
       <c r="I44" t="n">
-        <v>4258.97170463322</v>
+        <v>4258.36377967158</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8515.10874266247</v>
+        <v>8514.61900787399</v>
       </c>
       <c r="C45" t="n">
-        <v>4551.5397004509</v>
+        <v>4550.97998610194</v>
       </c>
       <c r="D45" t="n">
-        <v>3113.27922849712</v>
+        <v>3112.78028718346</v>
       </c>
       <c r="E45" t="n">
-        <v>14554.9845194518</v>
+        <v>14555.264961542</v>
       </c>
       <c r="F45" t="n">
-        <v>18789.6017046407</v>
+        <v>18790.8251366963</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>5122</v>
       </c>
       <c r="I45" t="n">
-        <v>3393.10874266247</v>
+        <v>3392.61900787399</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>8718.95152431336</v>
+        <v>8718.49868340432</v>
       </c>
       <c r="C46" t="n">
-        <v>4635.02794177597</v>
+        <v>4634.47708770726</v>
       </c>
       <c r="D46" t="n">
-        <v>3158.34535922973</v>
+        <v>3157.85100086054</v>
       </c>
       <c r="E46" t="n">
-        <v>14963.2481234268</v>
+        <v>14963.6493687769</v>
       </c>
       <c r="F46" t="n">
-        <v>19349.7795293054</v>
+        <v>19351.2070293597</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5121</v>
       </c>
       <c r="I46" t="n">
-        <v>3597.95152431336</v>
+        <v>3597.49868340432</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>7909.8686312389</v>
+        <v>7909.42122625718</v>
       </c>
       <c r="C47" t="n">
-        <v>4087.7364603353</v>
+        <v>4087.23309719521</v>
       </c>
       <c r="D47" t="n">
-        <v>2730.87677929601</v>
+        <v>2730.42688748474</v>
       </c>
       <c r="E47" t="n">
-        <v>13855.9077341375</v>
+        <v>13856.193845895</v>
       </c>
       <c r="F47" t="n">
-        <v>18074.9065800787</v>
+        <v>18076.1201067494</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5210</v>
       </c>
       <c r="I47" t="n">
-        <v>2699.8686312389</v>
+        <v>2699.42122625718</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>9632.52682021627</v>
+        <v>9632.12779690325</v>
       </c>
       <c r="C48" t="n">
-        <v>5117.96497414943</v>
+        <v>5117.38487500499</v>
       </c>
       <c r="D48" t="n">
-        <v>3486.13305423072</v>
+        <v>3485.60452974551</v>
       </c>
       <c r="E48" t="n">
-        <v>16537.5244546598</v>
+        <v>16538.2435367674</v>
       </c>
       <c r="F48" t="n">
-        <v>21389.1105961663</v>
+        <v>21391.1123740785</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>5664</v>
       </c>
       <c r="I48" t="n">
-        <v>3968.52682021627</v>
+        <v>3968.12779690325</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10305.7142332849</v>
+        <v>10305.1914122282</v>
       </c>
       <c r="C49" t="n">
-        <v>5494.18410637103</v>
+        <v>5493.47650660573</v>
       </c>
       <c r="D49" t="n">
-        <v>3751.1968287309</v>
+        <v>3750.56098576638</v>
       </c>
       <c r="E49" t="n">
-        <v>17649.64076828</v>
+        <v>17650.3464403815</v>
       </c>
       <c r="F49" t="n">
-        <v>22803.3963973602</v>
+        <v>22805.5124686283</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>5295</v>
       </c>
       <c r="I49" t="n">
-        <v>5010.71423328489</v>
+        <v>5010.19141222821</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>

--- a/outcome/appendix/forecast/AIDS.xlsx
+++ b/outcome/appendix/forecast/AIDS.xlsx
@@ -427,19 +427,19 @@
         <v>43831</v>
       </c>
       <c r="B2" t="n">
-        <v>3810.74725039387</v>
+        <v>3810.77645631147</v>
       </c>
       <c r="C2" t="n">
-        <v>3093.19669656473</v>
+        <v>3093.21852650191</v>
       </c>
       <c r="D2" t="n">
-        <v>2756.19455802821</v>
+        <v>2756.21490763437</v>
       </c>
       <c r="E2" t="n">
-        <v>4643.1062253206</v>
+        <v>4643.14481876877</v>
       </c>
       <c r="F2" t="n">
-        <v>5133.94478375156</v>
+        <v>5133.98723082384</v>
       </c>
       <c r="G2" t="s">
         <v>10</v>
@@ -448,7 +448,7 @@
         <v>2759</v>
       </c>
       <c r="I2" t="n">
-        <v>1051.74725039387</v>
+        <v>1051.77645631147</v>
       </c>
       <c r="J2" t="s">
         <v>11</v>
@@ -459,19 +459,19 @@
         <v>43862</v>
       </c>
       <c r="B3" t="n">
-        <v>3746.0459810632</v>
+        <v>3746.0714556298</v>
       </c>
       <c r="C3" t="n">
-        <v>2992.94162699029</v>
+        <v>2992.96095441557</v>
       </c>
       <c r="D3" t="n">
-        <v>2642.52297308112</v>
+        <v>2642.54197328483</v>
       </c>
       <c r="E3" t="n">
-        <v>4629.2368972288</v>
+        <v>4629.27099941039</v>
       </c>
       <c r="F3" t="n">
-        <v>5153.98308857661</v>
+        <v>5154.02042245737</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -480,7 +480,7 @@
         <v>2133</v>
       </c>
       <c r="I3" t="n">
-        <v>1613.0459810632</v>
+        <v>1613.0714556298</v>
       </c>
       <c r="J3" t="s">
         <v>11</v>
@@ -491,19 +491,19 @@
         <v>43891</v>
       </c>
       <c r="B4" t="n">
-        <v>6363.05457030953</v>
+        <v>6363.13460528685</v>
       </c>
       <c r="C4" t="n">
-        <v>5178.7207264258</v>
+        <v>5178.79795042028</v>
       </c>
       <c r="D4" t="n">
-        <v>4621.62517564619</v>
+        <v>4621.696223193</v>
       </c>
       <c r="E4" t="n">
-        <v>7734.37052711858</v>
+        <v>7734.43182428499</v>
       </c>
       <c r="F4" t="n">
-        <v>8542.00646701013</v>
+        <v>8542.04451430321</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
@@ -512,7 +512,7 @@
         <v>4808</v>
       </c>
       <c r="I4" t="n">
-        <v>1555.05457030953</v>
+        <v>1555.13460528685</v>
       </c>
       <c r="J4" t="s">
         <v>11</v>
@@ -523,19 +523,19 @@
         <v>43922</v>
       </c>
       <c r="B5" t="n">
-        <v>5995.66975459079</v>
+        <v>5995.74652855779</v>
       </c>
       <c r="C5" t="n">
-        <v>4806.95149342266</v>
+        <v>4807.02201642594</v>
       </c>
       <c r="D5" t="n">
-        <v>4252.71689611151</v>
+        <v>4252.78038656897</v>
       </c>
       <c r="E5" t="n">
-        <v>7386.41581888315</v>
+        <v>7386.47861979813</v>
       </c>
       <c r="F5" t="n">
-        <v>8211.37889740226</v>
+        <v>8211.42095006539</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -544,7 +544,7 @@
         <v>5960</v>
       </c>
       <c r="I5" t="n">
-        <v>35.6697545907919</v>
+        <v>35.7465285577937</v>
       </c>
       <c r="J5" t="s">
         <v>11</v>
@@ -555,19 +555,19 @@
         <v>43952</v>
       </c>
       <c r="B6" t="n">
-        <v>6379.8480117198</v>
+        <v>6379.91793194911</v>
       </c>
       <c r="C6" t="n">
-        <v>5078.61644695365</v>
+        <v>5078.68554109678</v>
       </c>
       <c r="D6" t="n">
-        <v>4474.4722975747</v>
+        <v>4474.53537929733</v>
       </c>
       <c r="E6" t="n">
-        <v>7909.72536556231</v>
+        <v>7909.76888518053</v>
       </c>
       <c r="F6" t="n">
-        <v>8820.28340628881</v>
+        <v>8820.29562642052</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -576,7 +576,7 @@
         <v>5484</v>
       </c>
       <c r="I6" t="n">
-        <v>895.848011719795</v>
+        <v>895.917931949112</v>
       </c>
       <c r="J6" t="s">
         <v>11</v>
@@ -587,19 +587,19 @@
         <v>43983</v>
       </c>
       <c r="B7" t="n">
-        <v>6948.64416812825</v>
+        <v>6948.72700189634</v>
       </c>
       <c r="C7" t="n">
-        <v>5504.5721128132</v>
+        <v>5504.66010186582</v>
       </c>
       <c r="D7" t="n">
-        <v>4836.03458160069</v>
+        <v>4836.1169238271</v>
       </c>
       <c r="E7" t="n">
-        <v>8652.14921199645</v>
+        <v>8652.18969108736</v>
       </c>
       <c r="F7" t="n">
-        <v>9668.37187170298</v>
+        <v>9668.36715772478</v>
       </c>
       <c r="G7" t="s">
         <v>10</v>
@@ -608,7 +608,7 @@
         <v>6915</v>
       </c>
       <c r="I7" t="n">
-        <v>33.6441681282531</v>
+        <v>33.7270018963391</v>
       </c>
       <c r="J7" t="s">
         <v>11</v>
@@ -619,19 +619,19 @@
         <v>44013</v>
       </c>
       <c r="B8" t="n">
-        <v>7111.32014938265</v>
+        <v>7111.48967006436</v>
       </c>
       <c r="C8" t="n">
-        <v>5587.18158230285</v>
+        <v>5587.34500228956</v>
       </c>
       <c r="D8" t="n">
-        <v>4885.01345321569</v>
+        <v>4885.16459946488</v>
       </c>
       <c r="E8" t="n">
-        <v>8919.47857272487</v>
+        <v>8919.61295760664</v>
       </c>
       <c r="F8" t="n">
-        <v>10002.3063715233</v>
+        <v>10002.3966016696</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
@@ -640,7 +640,7 @@
         <v>5166</v>
       </c>
       <c r="I8" t="n">
-        <v>1945.32014938265</v>
+        <v>1945.48967006436</v>
       </c>
       <c r="J8" t="s">
         <v>11</v>
@@ -651,19 +651,19 @@
         <v>44044</v>
       </c>
       <c r="B9" t="n">
-        <v>6582.69249584258</v>
+        <v>6582.79208180325</v>
       </c>
       <c r="C9" t="n">
-        <v>5095.76191345184</v>
+        <v>5095.85853294327</v>
       </c>
       <c r="D9" t="n">
-        <v>4416.73506082871</v>
+        <v>4416.82278037485</v>
       </c>
       <c r="E9" t="n">
-        <v>8364.68065532763</v>
+        <v>8364.74537660645</v>
       </c>
       <c r="F9" t="n">
-        <v>9439.20709413743</v>
+        <v>9439.22866794359</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -672,7 +672,7 @@
         <v>5166</v>
       </c>
       <c r="I9" t="n">
-        <v>1416.69249584258</v>
+        <v>1416.79208180325</v>
       </c>
       <c r="J9" t="s">
         <v>11</v>
@@ -683,19 +683,19 @@
         <v>44075</v>
       </c>
       <c r="B10" t="n">
-        <v>6716.05180010823</v>
+        <v>6716.131119048</v>
       </c>
       <c r="C10" t="n">
-        <v>5158.5379492298</v>
+        <v>5158.61973083779</v>
       </c>
       <c r="D10" t="n">
-        <v>4450.57843210842</v>
+        <v>4450.65296407174</v>
       </c>
       <c r="E10" t="n">
-        <v>8592.60101007907</v>
+        <v>8592.63449067596</v>
       </c>
       <c r="F10" t="n">
-        <v>9728.22790039376</v>
+        <v>9728.2089490049</v>
       </c>
       <c r="G10" t="s">
         <v>10</v>
@@ -704,7 +704,7 @@
         <v>6927</v>
       </c>
       <c r="I10" t="n">
-        <v>-210.948199891774</v>
+        <v>-210.868880952</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
@@ -715,19 +715,19 @@
         <v>44105</v>
       </c>
       <c r="B11" t="n">
-        <v>6113.5102943275</v>
+        <v>6113.58533700121</v>
       </c>
       <c r="C11" t="n">
-        <v>4620.3236373556</v>
+        <v>4620.39345505167</v>
       </c>
       <c r="D11" t="n">
-        <v>3948.128651128</v>
+        <v>3948.19023848029</v>
       </c>
       <c r="E11" t="n">
-        <v>7932.45414505823</v>
+        <v>7932.49848430923</v>
       </c>
       <c r="F11" t="n">
-        <v>9041.38792538588</v>
+        <v>9041.39058838139</v>
       </c>
       <c r="G11" t="s">
         <v>10</v>
@@ -736,7 +736,7 @@
         <v>4546</v>
       </c>
       <c r="I11" t="n">
-        <v>1567.5102943275</v>
+        <v>1567.58533700121</v>
       </c>
       <c r="J11" t="s">
         <v>11</v>
@@ -747,19 +747,19 @@
         <v>44136</v>
       </c>
       <c r="B12" t="n">
-        <v>7485.09239654247</v>
+        <v>7485.13818242785</v>
       </c>
       <c r="C12" t="n">
-        <v>5696.11485983885</v>
+        <v>5696.18268235454</v>
       </c>
       <c r="D12" t="n">
-        <v>4887.43606700091</v>
+        <v>4887.50126399939</v>
       </c>
       <c r="E12" t="n">
-        <v>9654.17778188023</v>
+        <v>9654.13680050574</v>
       </c>
       <c r="F12" t="n">
-        <v>10972.431953772</v>
+        <v>10972.3048366417</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -768,7 +768,7 @@
         <v>5824</v>
       </c>
       <c r="I12" t="n">
-        <v>1661.09239654247</v>
+        <v>1661.13818242785</v>
       </c>
       <c r="J12" t="s">
         <v>11</v>
@@ -779,19 +779,19 @@
         <v>44166</v>
       </c>
       <c r="B13" t="n">
-        <v>7829.11789551538</v>
+        <v>7829.25817943359</v>
       </c>
       <c r="C13" t="n">
-        <v>5929.9432467074</v>
+        <v>5930.09545661433</v>
       </c>
       <c r="D13" t="n">
-        <v>5073.86274780628</v>
+        <v>5074.00504682215</v>
       </c>
       <c r="E13" t="n">
-        <v>10139.1872555088</v>
+        <v>10139.2423997984</v>
       </c>
       <c r="F13" t="n">
-        <v>11546.1387938448</v>
+        <v>11546.1034618184</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -800,7 +800,7 @@
         <v>6508</v>
       </c>
       <c r="I13" t="n">
-        <v>1321.11789551538</v>
+        <v>1321.25817943359</v>
       </c>
       <c r="J13" t="s">
         <v>11</v>
@@ -811,19 +811,19 @@
         <v>44197</v>
       </c>
       <c r="B14" t="n">
-        <v>4186.90608367862</v>
+        <v>4187.00910157505</v>
       </c>
       <c r="C14" t="n">
-        <v>2916.60019338674</v>
+        <v>2916.69090545503</v>
       </c>
       <c r="D14" t="n">
-        <v>2372.18738747495</v>
+        <v>2372.27704961677</v>
       </c>
       <c r="E14" t="n">
-        <v>5821.24127689518</v>
+        <v>5821.34606240601</v>
       </c>
       <c r="F14" t="n">
-        <v>6854.09906430864</v>
+        <v>6854.18773576555</v>
       </c>
       <c r="G14" t="s">
         <v>10</v>
@@ -832,7 +832,7 @@
         <v>3260</v>
       </c>
       <c r="I14" t="n">
-        <v>926.906083678624</v>
+        <v>927.009101575049</v>
       </c>
       <c r="J14" t="s">
         <v>11</v>
@@ -843,19 +843,19 @@
         <v>44228</v>
       </c>
       <c r="B15" t="n">
-        <v>4084.48514324436</v>
+        <v>4084.58840803522</v>
       </c>
       <c r="C15" t="n">
-        <v>2795.82920114167</v>
+        <v>2795.92254801192</v>
       </c>
       <c r="D15" t="n">
-        <v>2249.42884950207</v>
+        <v>2249.52332736199</v>
       </c>
       <c r="E15" t="n">
-        <v>5761.7529573681</v>
+        <v>5761.85551658407</v>
       </c>
       <c r="F15" t="n">
-        <v>6829.6852385462</v>
+        <v>6829.7688859869</v>
       </c>
       <c r="G15" t="s">
         <v>10</v>
@@ -864,7 +864,7 @@
         <v>3051</v>
       </c>
       <c r="I15" t="n">
-        <v>1033.48514324436</v>
+        <v>1033.58840803522</v>
       </c>
       <c r="J15" t="s">
         <v>11</v>
@@ -875,19 +875,19 @@
         <v>44256</v>
       </c>
       <c r="B16" t="n">
-        <v>6911.12005182</v>
+        <v>6911.30589518827</v>
       </c>
       <c r="C16" t="n">
-        <v>4922.3941995317</v>
+        <v>4922.58557677975</v>
       </c>
       <c r="D16" t="n">
-        <v>4058.52773808142</v>
+        <v>4058.7059288469</v>
       </c>
       <c r="E16" t="n">
-        <v>9432.30668058386</v>
+        <v>9432.39734802819</v>
       </c>
       <c r="F16" t="n">
-        <v>11010.4451958026</v>
+        <v>11010.4245788865</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -896,7 +896,7 @@
         <v>5951</v>
       </c>
       <c r="I16" t="n">
-        <v>960.120051819997</v>
+        <v>960.305895188273</v>
       </c>
       <c r="J16" t="s">
         <v>11</v>
@@ -907,19 +907,19 @@
         <v>44287</v>
       </c>
       <c r="B17" t="n">
-        <v>6387.14019344162</v>
+        <v>6387.33059947104</v>
       </c>
       <c r="C17" t="n">
-        <v>4459.46672600359</v>
+        <v>4459.65279202252</v>
       </c>
       <c r="D17" t="n">
-        <v>3632.19365645691</v>
+        <v>3632.36527227051</v>
       </c>
       <c r="E17" t="n">
-        <v>8863.52487673917</v>
+        <v>8863.63810540013</v>
       </c>
       <c r="F17" t="n">
-        <v>10427.0260780041</v>
+        <v>10427.0395763502</v>
       </c>
       <c r="G17" t="s">
         <v>10</v>
@@ -928,7 +928,7 @@
         <v>5283</v>
       </c>
       <c r="I17" t="n">
-        <v>1104.14019344162</v>
+        <v>1104.33059947104</v>
       </c>
       <c r="J17" t="s">
         <v>11</v>
@@ -939,19 +939,19 @@
         <v>44317</v>
       </c>
       <c r="B18" t="n">
-        <v>6897.84444749548</v>
+        <v>6898.01899704348</v>
       </c>
       <c r="C18" t="n">
-        <v>4796.79744110154</v>
+        <v>4796.98427417081</v>
       </c>
       <c r="D18" t="n">
-        <v>3897.31969156627</v>
+        <v>3897.4946819085</v>
       </c>
       <c r="E18" t="n">
-        <v>9604.13671215684</v>
+        <v>9604.19295709036</v>
       </c>
       <c r="F18" t="n">
-        <v>11315.7324522543</v>
+        <v>11315.6528122191</v>
       </c>
       <c r="G18" t="s">
         <v>10</v>
@@ -960,7 +960,7 @@
         <v>5047</v>
       </c>
       <c r="I18" t="n">
-        <v>1850.84444749548</v>
+        <v>1851.01899704348</v>
       </c>
       <c r="J18" t="s">
         <v>11</v>
@@ -971,19 +971,19 @@
         <v>44348</v>
       </c>
       <c r="B19" t="n">
-        <v>7530.63036155424</v>
+        <v>7530.82222633878</v>
       </c>
       <c r="C19" t="n">
-        <v>5225.20332236763</v>
+        <v>5225.42157602968</v>
       </c>
       <c r="D19" t="n">
-        <v>4239.56985996682</v>
+        <v>4239.77616074225</v>
       </c>
       <c r="E19" t="n">
-        <v>10504.5687324959</v>
+        <v>10504.5986849178</v>
       </c>
       <c r="F19" t="n">
-        <v>12387.2327776304</v>
+        <v>12387.0866486635</v>
       </c>
       <c r="G19" t="s">
         <v>10</v>
@@ -992,7 +992,7 @@
         <v>5978</v>
       </c>
       <c r="I19" t="n">
-        <v>1552.63036155424</v>
+        <v>1552.82222633878</v>
       </c>
       <c r="J19" t="s">
         <v>11</v>
@@ -1003,19 +1003,19 @@
         <v>44378</v>
       </c>
       <c r="B20" t="n">
-        <v>7653.99212121266</v>
+        <v>7654.29755009235</v>
       </c>
       <c r="C20" t="n">
-        <v>5262.73876695668</v>
+        <v>5263.04888269084</v>
       </c>
       <c r="D20" t="n">
-        <v>4246.07223674175</v>
+        <v>4246.35806540092</v>
       </c>
       <c r="E20" t="n">
-        <v>10757.2524995932</v>
+        <v>10757.4085718547</v>
       </c>
       <c r="F20" t="n">
-        <v>12729.4111771099</v>
+        <v>12729.3904574136</v>
       </c>
       <c r="G20" t="s">
         <v>10</v>
@@ -1024,7 +1024,7 @@
         <v>3373</v>
       </c>
       <c r="I20" t="n">
-        <v>4280.99212121266</v>
+        <v>4281.29755009235</v>
       </c>
       <c r="J20" t="s">
         <v>11</v>
@@ -1035,19 +1035,19 @@
         <v>44409</v>
       </c>
       <c r="B21" t="n">
-        <v>7128.48862493833</v>
+        <v>7128.70038229276</v>
       </c>
       <c r="C21" t="n">
-        <v>4812.40279204357</v>
+        <v>4812.62872793443</v>
       </c>
       <c r="D21" t="n">
-        <v>3838.68499525951</v>
+        <v>3838.89514734673</v>
       </c>
       <c r="E21" t="n">
-        <v>10170.7136517636</v>
+        <v>10170.7733228166</v>
       </c>
       <c r="F21" t="n">
-        <v>12119.0954289875</v>
+        <v>12118.9781098075</v>
       </c>
       <c r="G21" t="s">
         <v>10</v>
@@ -1056,7 +1056,7 @@
         <v>4710</v>
       </c>
       <c r="I21" t="n">
-        <v>2418.48862493833</v>
+        <v>2418.70038229276</v>
       </c>
       <c r="J21" t="s">
         <v>11</v>
@@ -1067,19 +1067,19 @@
         <v>44440</v>
       </c>
       <c r="B22" t="n">
-        <v>7307.58584623923</v>
+        <v>7307.7683461813</v>
       </c>
       <c r="C22" t="n">
-        <v>4895.65773059403</v>
+        <v>4895.86812642774</v>
       </c>
       <c r="D22" t="n">
-        <v>3886.40950262307</v>
+        <v>3886.60764641078</v>
       </c>
       <c r="E22" t="n">
-        <v>10491.6840177291</v>
+        <v>10491.6832719366</v>
       </c>
       <c r="F22" t="n">
-        <v>12537.4760109826</v>
+        <v>12537.2704986024</v>
       </c>
       <c r="G22" t="s">
         <v>10</v>
@@ -1088,7 +1088,7 @@
         <v>5039</v>
       </c>
       <c r="I22" t="n">
-        <v>2268.58584623923</v>
+        <v>2268.7683461813</v>
       </c>
       <c r="J22" t="s">
         <v>11</v>
@@ -1099,19 +1099,19 @@
         <v>44470</v>
       </c>
       <c r="B23" t="n">
-        <v>6597.77519243544</v>
+        <v>6597.95449649057</v>
       </c>
       <c r="C23" t="n">
-        <v>4322.75736929172</v>
+        <v>4322.94835244237</v>
       </c>
       <c r="D23" t="n">
-        <v>3383.77731492801</v>
+        <v>3383.95556623151</v>
       </c>
       <c r="E23" t="n">
-        <v>9645.18367153763</v>
+        <v>9645.21739548809</v>
       </c>
       <c r="F23" t="n">
-        <v>11621.2872948102</v>
+        <v>11621.1446757505</v>
       </c>
       <c r="G23" t="s">
         <v>10</v>
@@ -1120,7 +1120,7 @@
         <v>5357</v>
       </c>
       <c r="I23" t="n">
-        <v>1240.77519243544</v>
+        <v>1240.95449649057</v>
       </c>
       <c r="J23" t="s">
         <v>11</v>
@@ -1131,19 +1131,19 @@
         <v>44501</v>
       </c>
       <c r="B24" t="n">
-        <v>8111.92638380702</v>
+        <v>8112.06696000875</v>
       </c>
       <c r="C24" t="n">
-        <v>5391.83880501307</v>
+        <v>5392.04589139091</v>
       </c>
       <c r="D24" t="n">
-        <v>4259.15927834014</v>
+        <v>4259.36078638215</v>
       </c>
       <c r="E24" t="n">
-        <v>11721.4559015508</v>
+        <v>11721.3180577274</v>
       </c>
       <c r="F24" t="n">
-        <v>14048.216424585</v>
+        <v>14047.7894045068</v>
       </c>
       <c r="G24" t="s">
         <v>10</v>
@@ -1152,7 +1152,7 @@
         <v>6493</v>
       </c>
       <c r="I24" t="n">
-        <v>1618.92638380702</v>
+        <v>1619.06696000875</v>
       </c>
       <c r="J24" t="s">
         <v>11</v>
@@ -1163,19 +1163,19 @@
         <v>44531</v>
       </c>
       <c r="B25" t="n">
-        <v>8706.18447506669</v>
+        <v>8706.42518957523</v>
       </c>
       <c r="C25" t="n">
-        <v>5779.97107908272</v>
+        <v>5780.27492458607</v>
       </c>
       <c r="D25" t="n">
-        <v>4562.35147496127</v>
+        <v>4562.64004776029</v>
       </c>
       <c r="E25" t="n">
-        <v>12592.2669044015</v>
+        <v>12592.199103783</v>
       </c>
       <c r="F25" t="n">
-        <v>15098.5350355295</v>
+        <v>15098.1418154749</v>
       </c>
       <c r="G25" t="s">
         <v>10</v>
@@ -1184,7 +1184,7 @@
         <v>7490</v>
       </c>
       <c r="I25" t="n">
-        <v>1216.18447506669</v>
+        <v>1216.42518957523</v>
       </c>
       <c r="J25" t="s">
         <v>11</v>
@@ -1195,19 +1195,19 @@
         <v>44562</v>
       </c>
       <c r="B26" t="n">
-        <v>4643.50006594828</v>
+        <v>4643.69072919538</v>
       </c>
       <c r="C26" t="n">
-        <v>2791.25811890896</v>
+        <v>2791.43456790381</v>
       </c>
       <c r="D26" t="n">
-        <v>2066.77232140467</v>
+        <v>2066.94658897624</v>
       </c>
       <c r="E26" t="n">
-        <v>7266.07826665787</v>
+        <v>7266.21634673806</v>
       </c>
       <c r="F26" t="n">
-        <v>9026.13939757609</v>
+        <v>9026.17731274562</v>
       </c>
       <c r="G26" t="s">
         <v>10</v>
@@ -1216,7 +1216,7 @@
         <v>3109</v>
       </c>
       <c r="I26" t="n">
-        <v>1534.50006594828</v>
+        <v>1534.69072919538</v>
       </c>
       <c r="J26" t="s">
         <v>11</v>
@@ -1227,19 +1227,19 @@
         <v>44593</v>
       </c>
       <c r="B27" t="n">
-        <v>4532.99362466224</v>
+        <v>4533.18344733269</v>
       </c>
       <c r="C27" t="n">
-        <v>2679.30718430084</v>
+        <v>2679.48487067744</v>
       </c>
       <c r="D27" t="n">
-        <v>1961.92795956912</v>
+        <v>1962.10605091694</v>
       </c>
       <c r="E27" t="n">
-        <v>7185.83622377696</v>
+        <v>7185.97089930195</v>
       </c>
       <c r="F27" t="n">
-        <v>8977.80107940317</v>
+        <v>8977.8310785445</v>
       </c>
       <c r="G27" t="s">
         <v>10</v>
@@ -1248,7 +1248,7 @@
         <v>3364</v>
       </c>
       <c r="I27" t="n">
-        <v>1168.99362466224</v>
+        <v>1169.18344733269</v>
       </c>
       <c r="J27" t="s">
         <v>11</v>
@@ -1259,19 +1259,19 @@
         <v>44621</v>
       </c>
       <c r="B28" t="n">
-        <v>7566.82611936307</v>
+        <v>7567.12052081256</v>
       </c>
       <c r="C28" t="n">
-        <v>4752.3302269792</v>
+        <v>4752.64961862057</v>
       </c>
       <c r="D28" t="n">
-        <v>3620.81783679075</v>
+        <v>3621.11202969024</v>
       </c>
       <c r="E28" t="n">
-        <v>11441.6787218962</v>
+        <v>11441.7078950865</v>
       </c>
       <c r="F28" t="n">
-        <v>13997.7671491556</v>
+        <v>13997.4831404857</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
@@ -1280,7 +1280,7 @@
         <v>5020</v>
       </c>
       <c r="I28" t="n">
-        <v>2546.82611936307</v>
+        <v>2547.12052081256</v>
       </c>
       <c r="J28" t="s">
         <v>11</v>
@@ -1291,19 +1291,19 @@
         <v>44652</v>
       </c>
       <c r="B29" t="n">
-        <v>7006.52759009119</v>
+        <v>7006.82572272148</v>
       </c>
       <c r="C29" t="n">
-        <v>4306.64797121551</v>
+        <v>4306.95396802597</v>
       </c>
       <c r="D29" t="n">
-        <v>3235.74260640673</v>
+        <v>3236.0225054439</v>
       </c>
       <c r="E29" t="n">
-        <v>10775.3632529883</v>
+        <v>10775.4329719462</v>
       </c>
       <c r="F29" t="n">
-        <v>13282.825392251</v>
+        <v>13282.6078146121</v>
       </c>
       <c r="G29" t="s">
         <v>10</v>
@@ -1312,7 +1312,7 @@
         <v>3837</v>
       </c>
       <c r="I29" t="n">
-        <v>3169.52759009119</v>
+        <v>3169.82572272148</v>
       </c>
       <c r="J29" t="s">
         <v>11</v>
@@ -1323,19 +1323,19 @@
         <v>44682</v>
       </c>
       <c r="B30" t="n">
-        <v>7552.63986908761</v>
+        <v>7552.92217990067</v>
       </c>
       <c r="C30" t="n">
-        <v>4640.48018123557</v>
+        <v>4640.79596804354</v>
       </c>
       <c r="D30" t="n">
-        <v>3485.66631317081</v>
+        <v>3485.95808676713</v>
       </c>
       <c r="E30" t="n">
-        <v>11618.8534204122</v>
+        <v>11618.833454577</v>
       </c>
       <c r="F30" t="n">
-        <v>14324.5947754886</v>
+        <v>14324.2190274186</v>
       </c>
       <c r="G30" t="s">
         <v>10</v>
@@ -1344,7 +1344,7 @@
         <v>4490</v>
       </c>
       <c r="I30" t="n">
-        <v>3062.63986908761</v>
+        <v>3062.92217990067</v>
       </c>
       <c r="J30" t="s">
         <v>11</v>
@@ -1355,19 +1355,19 @@
         <v>44713</v>
       </c>
       <c r="B31" t="n">
-        <v>8228.31853531778</v>
+        <v>8228.61999929019</v>
       </c>
       <c r="C31" t="n">
-        <v>5063.31985052185</v>
+        <v>5063.67749040071</v>
       </c>
       <c r="D31" t="n">
-        <v>3807.05133899851</v>
+        <v>3807.38324960023</v>
       </c>
       <c r="E31" t="n">
-        <v>12643.2871457594</v>
+        <v>12643.2066599101</v>
       </c>
       <c r="F31" t="n">
-        <v>15579.3485313647</v>
+        <v>15578.8357731858</v>
       </c>
       <c r="G31" t="s">
         <v>10</v>
@@ -1376,7 +1376,7 @@
         <v>5626</v>
       </c>
       <c r="I31" t="n">
-        <v>2602.31853531778</v>
+        <v>2602.61999929019</v>
       </c>
       <c r="J31" t="s">
         <v>11</v>
@@ -1387,19 +1387,19 @@
         <v>44743</v>
       </c>
       <c r="B32" t="n">
-        <v>8359.92528306943</v>
+        <v>8360.34792508751</v>
       </c>
       <c r="C32" t="n">
-        <v>5104.02230847217</v>
+        <v>5104.47242820779</v>
       </c>
       <c r="D32" t="n">
-        <v>3818.03295997735</v>
+        <v>3818.44097729091</v>
       </c>
       <c r="E32" t="n">
-        <v>12924.6088860762</v>
+        <v>12924.6620117641</v>
       </c>
       <c r="F32" t="n">
-        <v>15969.6203740649</v>
+        <v>15969.2339923205</v>
       </c>
       <c r="G32" t="s">
         <v>10</v>
@@ -1408,7 +1408,7 @@
         <v>4667</v>
       </c>
       <c r="I32" t="n">
-        <v>3692.92528306943</v>
+        <v>3693.34792508751</v>
       </c>
       <c r="J32" t="s">
         <v>11</v>
@@ -1419,19 +1419,19 @@
         <v>44774</v>
       </c>
       <c r="B33" t="n">
-        <v>7799.03793629741</v>
+        <v>7799.36032164862</v>
       </c>
       <c r="C33" t="n">
-        <v>4667.06887544718</v>
+        <v>4667.42838616902</v>
       </c>
       <c r="D33" t="n">
-        <v>3445.54186013779</v>
+        <v>3445.87113990029</v>
       </c>
       <c r="E33" t="n">
-        <v>12246.4293182207</v>
+        <v>12246.3884058477</v>
       </c>
       <c r="F33" t="n">
-        <v>15236.4173211874</v>
+        <v>15235.9446434079</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
@@ -1440,7 +1440,7 @@
         <v>4679</v>
       </c>
       <c r="I33" t="n">
-        <v>3120.03793629741</v>
+        <v>3120.36032164862</v>
       </c>
       <c r="J33" t="s">
         <v>11</v>
@@ -1451,19 +1451,19 @@
         <v>44805</v>
       </c>
       <c r="B34" t="n">
-        <v>7990.27207800274</v>
+        <v>7990.56340216117</v>
       </c>
       <c r="C34" t="n">
-        <v>4751.38067156297</v>
+        <v>4751.72855320878</v>
       </c>
       <c r="D34" t="n">
-        <v>3493.18528296476</v>
+        <v>3493.50686636058</v>
       </c>
       <c r="E34" t="n">
-        <v>12607.9977977615</v>
+        <v>12607.8748922374</v>
       </c>
       <c r="F34" t="n">
-        <v>15720.0785081849</v>
+        <v>15719.4757437279</v>
       </c>
       <c r="G34" t="s">
         <v>10</v>
@@ -1472,7 +1472,7 @@
         <v>4389</v>
       </c>
       <c r="I34" t="n">
-        <v>3601.27207800274</v>
+        <v>3601.56340216117</v>
       </c>
       <c r="J34" t="s">
         <v>11</v>
@@ -1483,19 +1483,19 @@
         <v>44835</v>
       </c>
       <c r="B35" t="n">
-        <v>7231.85688623687</v>
+        <v>7232.14367839144</v>
       </c>
       <c r="C35" t="n">
-        <v>4193.38571297153</v>
+        <v>4193.70311750953</v>
       </c>
       <c r="D35" t="n">
-        <v>3031.73825427496</v>
+        <v>3032.03011352304</v>
       </c>
       <c r="E35" t="n">
-        <v>11633.387651841</v>
+        <v>11633.328138226</v>
       </c>
       <c r="F35" t="n">
-        <v>14628.408043607</v>
+        <v>14627.9225059852</v>
       </c>
       <c r="G35" t="s">
         <v>10</v>
@@ -1504,7 +1504,7 @@
         <v>3965</v>
       </c>
       <c r="I35" t="n">
-        <v>3266.85688623687</v>
+        <v>3267.14367839144</v>
       </c>
       <c r="J35" t="s">
         <v>11</v>
@@ -1515,19 +1515,19 @@
         <v>44866</v>
       </c>
       <c r="B36" t="n">
-        <v>8848.15438589204</v>
+        <v>8848.40116185066</v>
       </c>
       <c r="C36" t="n">
-        <v>5242.00509920452</v>
+        <v>5242.36446449887</v>
       </c>
       <c r="D36" t="n">
-        <v>3844.43673845</v>
+        <v>3844.77609877048</v>
       </c>
       <c r="E36" t="n">
-        <v>14001.6397323798</v>
+        <v>14001.3143339852</v>
       </c>
       <c r="F36" t="n">
-        <v>17479.7643683834</v>
+        <v>17478.8119500094</v>
       </c>
       <c r="G36" t="s">
         <v>10</v>
@@ -1536,7 +1536,7 @@
         <v>4299</v>
       </c>
       <c r="I36" t="n">
-        <v>4549.15438589204</v>
+        <v>4549.40116185066</v>
       </c>
       <c r="J36" t="s">
         <v>11</v>
@@ -1547,19 +1547,19 @@
         <v>44896</v>
       </c>
       <c r="B37" t="n">
-        <v>9481.03819977335</v>
+        <v>9481.39104391578</v>
       </c>
       <c r="C37" t="n">
-        <v>5624.40960963336</v>
+        <v>5624.87448687193</v>
       </c>
       <c r="D37" t="n">
-        <v>4128.51777061564</v>
+        <v>4128.9490684601</v>
       </c>
       <c r="E37" t="n">
-        <v>14987.862349326</v>
+        <v>14987.5835463213</v>
       </c>
       <c r="F37" t="n">
-        <v>18702.5722190436</v>
+        <v>18701.5971693051</v>
       </c>
       <c r="G37" t="s">
         <v>10</v>
@@ -1568,7 +1568,7 @@
         <v>5264</v>
       </c>
       <c r="I37" t="n">
-        <v>4217.03819977335</v>
+        <v>4217.39104391578</v>
       </c>
       <c r="J37" t="s">
         <v>11</v>
@@ -1579,19 +1579,19 @@
         <v>44927</v>
       </c>
       <c r="B38" t="n">
-        <v>5135.50326368626</v>
+        <v>5135.79261067538</v>
       </c>
       <c r="C38" t="n">
-        <v>2703.96174409745</v>
+        <v>2704.23181274983</v>
       </c>
       <c r="D38" t="n">
-        <v>1830.19077076387</v>
+        <v>1830.45137252918</v>
       </c>
       <c r="E38" t="n">
-        <v>8875.40799023641</v>
+        <v>8875.53096721804</v>
       </c>
       <c r="F38" t="n">
-        <v>11511.7662358371</v>
+        <v>11511.6150520592</v>
       </c>
       <c r="G38" t="s">
         <v>10</v>
@@ -1600,7 +1600,7 @@
         <v>1815</v>
       </c>
       <c r="I38" t="n">
-        <v>3320.50326368626</v>
+        <v>3320.79261067538</v>
       </c>
       <c r="J38" t="s">
         <v>11</v>
@@ -1611,19 +1611,19 @@
         <v>44958</v>
       </c>
       <c r="B39" t="n">
-        <v>5016.51815156993</v>
+        <v>5016.80567327633</v>
       </c>
       <c r="C39" t="n">
-        <v>2596.23095468993</v>
+        <v>2596.50044315151</v>
       </c>
       <c r="D39" t="n">
-        <v>1736.188674357</v>
+        <v>1736.45168991683</v>
       </c>
       <c r="E39" t="n">
-        <v>8778.50944434766</v>
+        <v>8778.62863704364</v>
       </c>
       <c r="F39" t="n">
-        <v>11446.6005067303</v>
+        <v>11446.4390349733</v>
       </c>
       <c r="G39" t="s">
         <v>10</v>
@@ -1632,7 +1632,7 @@
         <v>4516</v>
       </c>
       <c r="I39" t="n">
-        <v>500.518151569931</v>
+        <v>500.805673276326</v>
       </c>
       <c r="J39" t="s">
         <v>11</v>
@@ -1643,19 +1643,19 @@
         <v>44986</v>
       </c>
       <c r="B40" t="n">
-        <v>8266.93727255644</v>
+        <v>8267.34814730498</v>
       </c>
       <c r="C40" t="n">
-        <v>4627.92624317407</v>
+        <v>4628.38571418019</v>
       </c>
       <c r="D40" t="n">
-        <v>3267.56649407855</v>
+        <v>3267.9798191928</v>
       </c>
       <c r="E40" t="n">
-        <v>13655.9781499362</v>
+        <v>13655.8462871304</v>
       </c>
       <c r="F40" t="n">
-        <v>17371.5071841633</v>
+        <v>17370.7167402408</v>
       </c>
       <c r="G40" t="s">
         <v>10</v>
@@ -1664,7 +1664,7 @@
         <v>5785</v>
       </c>
       <c r="I40" t="n">
-        <v>2481.93727255644</v>
+        <v>2482.34814730498</v>
       </c>
       <c r="J40" t="s">
         <v>11</v>
@@ -1675,19 +1675,19 @@
         <v>45017</v>
       </c>
       <c r="B41" t="n">
-        <v>7668.76416753827</v>
+        <v>7669.17867678776</v>
       </c>
       <c r="C41" t="n">
-        <v>4192.64113702169</v>
+        <v>4193.07812725174</v>
       </c>
       <c r="D41" t="n">
-        <v>2912.77313136106</v>
+        <v>2913.16390076473</v>
       </c>
       <c r="E41" t="n">
-        <v>12892.8846212196</v>
+        <v>12892.818983822</v>
       </c>
       <c r="F41" t="n">
-        <v>16526.0982474887</v>
+        <v>16525.4203043967</v>
       </c>
       <c r="G41" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
         <v>4937</v>
       </c>
       <c r="I41" t="n">
-        <v>2731.76416753827</v>
+        <v>2732.17867678776</v>
       </c>
       <c r="J41" t="s">
         <v>11</v>
@@ -1707,19 +1707,19 @@
         <v>45047</v>
       </c>
       <c r="B42" t="n">
-        <v>8251.80175953516</v>
+        <v>8252.19973244931</v>
       </c>
       <c r="C42" t="n">
-        <v>4521.59615540679</v>
+        <v>4522.05218152306</v>
       </c>
       <c r="D42" t="n">
-        <v>3146.1864552875</v>
+        <v>3146.59698276524</v>
       </c>
       <c r="E42" t="n">
-        <v>13849.9564265407</v>
+        <v>13849.7577113661</v>
       </c>
       <c r="F42" t="n">
-        <v>17740.1098710434</v>
+        <v>17739.1861546171</v>
       </c>
       <c r="G42" t="s">
         <v>10</v>
@@ -1728,7 +1728,7 @@
         <v>5455</v>
       </c>
       <c r="I42" t="n">
-        <v>2796.80175953516</v>
+        <v>2797.19973244931</v>
       </c>
       <c r="J42" t="s">
         <v>11</v>
@@ -1739,19 +1739,19 @@
         <v>45078</v>
       </c>
       <c r="B43" t="n">
-        <v>8972.17116441264</v>
+        <v>8972.58928774924</v>
       </c>
       <c r="C43" t="n">
-        <v>4937.96703711238</v>
+        <v>4938.47580561148</v>
       </c>
       <c r="D43" t="n">
-        <v>3446.26431350715</v>
+        <v>3446.72336770591</v>
       </c>
       <c r="E43" t="n">
-        <v>15010.105275516</v>
+        <v>15009.7993767131</v>
       </c>
       <c r="F43" t="n">
-        <v>19199.1526093208</v>
+        <v>19197.9952902309</v>
       </c>
       <c r="G43" t="s">
         <v>10</v>
@@ -1760,7 +1760,7 @@
         <v>5759</v>
       </c>
       <c r="I43" t="n">
-        <v>3213.17116441264</v>
+        <v>3213.58928774924</v>
       </c>
       <c r="J43" t="s">
         <v>11</v>
@@ -1771,19 +1771,19 @@
         <v>45108</v>
       </c>
       <c r="B44" t="n">
-        <v>9112.36377967158</v>
+        <v>9112.91083153549</v>
       </c>
       <c r="C44" t="n">
-        <v>4979.09630069787</v>
+        <v>4979.69832443077</v>
       </c>
       <c r="D44" t="n">
-        <v>3457.84008683696</v>
+        <v>3458.37199344279</v>
       </c>
       <c r="E44" t="n">
-        <v>15326.2980004045</v>
+        <v>15326.1306028293</v>
       </c>
       <c r="F44" t="n">
-        <v>19648.8025495683</v>
+        <v>19647.7656736224</v>
       </c>
       <c r="G44" t="s">
         <v>10</v>
@@ -1792,7 +1792,7 @@
         <v>4854</v>
       </c>
       <c r="I44" t="n">
-        <v>4258.36377967158</v>
+        <v>4258.91083153549</v>
       </c>
       <c r="J44" t="s">
         <v>11</v>
@@ -1803,19 +1803,19 @@
         <v>45139</v>
       </c>
       <c r="B45" t="n">
-        <v>8514.61900787399</v>
+        <v>8515.05970671188</v>
       </c>
       <c r="C45" t="n">
-        <v>4550.97998610194</v>
+        <v>4551.48365579563</v>
       </c>
       <c r="D45" t="n">
-        <v>3112.78028718346</v>
+        <v>3113.22926695036</v>
       </c>
       <c r="E45" t="n">
-        <v>14555.264961542</v>
+        <v>14555.0125503623</v>
       </c>
       <c r="F45" t="n">
-        <v>18790.8251366963</v>
+        <v>18789.7240760073</v>
       </c>
       <c r="G45" t="s">
         <v>10</v>
@@ -1824,7 +1824,7 @@
         <v>5122</v>
       </c>
       <c r="I45" t="n">
-        <v>3392.61900787399</v>
+        <v>3393.05970671188</v>
       </c>
       <c r="J45" t="s">
         <v>11</v>
@@ -1835,19 +1835,19 @@
         <v>45170</v>
       </c>
       <c r="B46" t="n">
-        <v>8718.49868340432</v>
+        <v>8718.90618173233</v>
       </c>
       <c r="C46" t="n">
-        <v>4634.47708770726</v>
+        <v>4634.97278438914</v>
       </c>
       <c r="D46" t="n">
-        <v>3157.85100086054</v>
+        <v>3158.29585652226</v>
       </c>
       <c r="E46" t="n">
-        <v>14963.6493687769</v>
+        <v>14963.2882432887</v>
       </c>
       <c r="F46" t="n">
-        <v>19351.2070293597</v>
+        <v>19349.922318969</v>
       </c>
       <c r="G46" t="s">
         <v>10</v>
@@ -1856,7 +1856,7 @@
         <v>5121</v>
       </c>
       <c r="I46" t="n">
-        <v>3597.49868340432</v>
+        <v>3597.90618173233</v>
       </c>
       <c r="J46" t="s">
         <v>11</v>
@@ -1867,19 +1867,19 @@
         <v>45200</v>
       </c>
       <c r="B47" t="n">
-        <v>7909.42122625718</v>
+        <v>7909.8238354893</v>
       </c>
       <c r="C47" t="n">
-        <v>4087.23309719521</v>
+        <v>4087.68605785749</v>
       </c>
       <c r="D47" t="n">
-        <v>2730.42688748474</v>
+        <v>2730.83172977537</v>
       </c>
       <c r="E47" t="n">
-        <v>13856.193845895</v>
+        <v>13855.9363419554</v>
       </c>
       <c r="F47" t="n">
-        <v>18076.1201067494</v>
+        <v>18075.0279740502</v>
       </c>
       <c r="G47" t="s">
         <v>10</v>
@@ -1888,7 +1888,7 @@
         <v>5210</v>
       </c>
       <c r="I47" t="n">
-        <v>2699.42122625718</v>
+        <v>2699.8238354893</v>
       </c>
       <c r="J47" t="s">
         <v>11</v>
@@ -1899,19 +1899,19 @@
         <v>45231</v>
       </c>
       <c r="B48" t="n">
-        <v>9632.12779690325</v>
+        <v>9632.48686334123</v>
       </c>
       <c r="C48" t="n">
-        <v>5117.38487500499</v>
+        <v>5117.90688946998</v>
       </c>
       <c r="D48" t="n">
-        <v>3485.60452974551</v>
+        <v>3486.08013064851</v>
       </c>
       <c r="E48" t="n">
-        <v>16538.2435367674</v>
+        <v>16537.5963728742</v>
       </c>
       <c r="F48" t="n">
-        <v>21391.1123740785</v>
+        <v>21389.3108340665</v>
       </c>
       <c r="G48" t="s">
         <v>10</v>
@@ -1920,7 +1920,7 @@
         <v>5664</v>
       </c>
       <c r="I48" t="n">
-        <v>3968.12779690325</v>
+        <v>3968.48686334123</v>
       </c>
       <c r="J48" t="s">
         <v>11</v>
@@ -1931,19 +1931,19 @@
         <v>45261</v>
       </c>
       <c r="B49" t="n">
-        <v>10305.1914122282</v>
+        <v>10305.6618770561</v>
       </c>
       <c r="C49" t="n">
-        <v>5493.47650660573</v>
+        <v>5494.11325453015</v>
       </c>
       <c r="D49" t="n">
-        <v>3750.56098576638</v>
+        <v>3751.13315841094</v>
       </c>
       <c r="E49" t="n">
-        <v>17650.3464403815</v>
+        <v>17649.7113247662</v>
       </c>
       <c r="F49" t="n">
-        <v>22805.5124686283</v>
+        <v>22803.6080427819</v>
       </c>
       <c r="G49" t="s">
         <v>10</v>
@@ -1952,7 +1952,7 @@
         <v>5295</v>
       </c>
       <c r="I49" t="n">
-        <v>5010.19141222821</v>
+        <v>5010.66187705608</v>
       </c>
       <c r="J49" t="s">
         <v>11</v>
